--- a/biology/Médecine/Denis_Barberet/Denis_Barberet.xlsx
+++ b/biology/Médecine/Denis_Barberet/Denis_Barberet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Barberet, né le 17 octobre 1714 à Arnay-le-Duc (Bourgogne) et mort en 1770, est un médecin et homme de science français, membre de plusieurs sociétés savantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né au milieu des vignobles de Bourgogne. Il fut reçu médecin à la faculté de Montpellier et voyagea en Italie. En 1743, il s'établit à Dijon puis à Bourg-en-Bresse, avant d'exercer à partir de 1766 à Toulon et dans les armées comme médecin de la Marine. Il « s'était fait connaître surtout par des bons mémoires couronnés par diverses sociétés savantes » (Larousse du XIXe siècle).
 Il se distingua par son souci briguer les suffrages académiques, et par son empressement à répondre aux questions que les sociétés savantes, encore dans le zèle de leur première institution, présentaient de toutes parts aux esprits avides d'instruction.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertation sur le rapport qui se trouve entre les phénomènes du tonnerre et ceux de l'électricité, qui a remporté le prix au jugement de l'Académie royale des Belles-Lettres, Sciences et Arts,  Bordeaux, chez Pierre Brun, 1750. Mémoire sur le caractère électrique des phénomènes atmosphériques, qui obtint le premier prix de l'Académie des sciences de Bordeaux.
 Mémoire qui a remporté le prix de physique de l'année 1761. Au jugement de l'Académie des Sciences, Belles-Lettres et Arts de Lyon, Lyon, Duplain, 1761 (ce mémoire roule sur une question : « Quelles sont les causes qui font pousser le vin ? Quels sont les moyens de prévenir cet accident et d'y remédier, sans que la qualité du vin devienne nuisible à la santé ? ».  On y trouve surtout des observations précieuses sur les altérations spontanées que la continuation du travail fermentatif amène chaque jour dans le vin, sur les moyens de les régler, de bâter celles qui ajoutent à ses bonnes qualités, de le maintenir le plus longtemps possible à cet état, de prévenir, suspendre celles de ces altérations qui lui sont contraires. On regrette que les connaissances chimiques actuelles n'aient pu l'éclairer et lui servir à lier tous ces faits, qui n'en sont pas moins de précieux matériaux pour une histoire du vin.)
